--- a/Results/Sentiwordnet/hasil_lex_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_lex_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>1004293:1</t>
   </si>
   <si>
+    <t>1016296:1</t>
+  </si>
+  <si>
     <t>1028246:1</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
     <t>454704:1</t>
   </si>
   <si>
+    <t>464342:1</t>
+  </si>
+  <si>
     <t>475298:0</t>
   </si>
   <si>
@@ -394,6 +400,9 @@
     <t>we, there were four of us, arrived at noon - the place was empty - and the staff acted like we were imposing on them and they were very rude.</t>
   </si>
   <si>
+    <t>ive asked a cart attendant for a lotus leaf wrapped rice and she replied back rice and just walked away.</t>
+  </si>
+  <si>
     <t>service was devine, oysters where a sensual as they come, and the price can't be beat!!!</t>
   </si>
   <si>
@@ -679,6 +688,9 @@
     <t>the service is awful.</t>
   </si>
   <si>
+    <t>i asked for an open faced cheese sandwich and the manager basically told me to take my business elsewhere!</t>
+  </si>
+  <si>
     <t>good, fast service.</t>
   </si>
   <si>
@@ -751,7 +763,10 @@
     <t>considering you will spend at least $60 a head, i expect better service.</t>
   </si>
   <si>
-    <t>like</t>
+    <t>empty|empty</t>
+  </si>
+  <si>
+    <t>ive|ive</t>
   </si>
   <si>
     <t>sensual</t>
@@ -760,67 +775,64 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>haze</t>
+    <t>extensive|purple</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>friendly|friendly</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>japanese|japanese</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
     <t>friendly</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>intimidate</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>patient</t>
   </si>
   <si>
+    <t>prompt|friendly</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>prompt</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>moved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>nonsense</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>unappreciative|unappreciative</t>
+  </si>
+  <si>
+    <t>professional</t>
   </si>
   <si>
     <t>delicous</t>
@@ -829,7 +841,7 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>professional</t>
+    <t>only</t>
   </si>
   <si>
     <t>poor</t>
@@ -841,100 +853,127 @@
     <t>delicious</t>
   </si>
   <si>
+    <t>bad|bad|bad|bad</t>
+  </si>
+  <si>
     <t>impeccable</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
     <t>proper</t>
   </si>
   <si>
+    <t>nice|nice|nice|nice</t>
+  </si>
+  <si>
+    <t>impeccable|unobtrusive|present</t>
+  </si>
+  <si>
+    <t>impeccable|impeccable</t>
+  </si>
+  <si>
     <t>friendliest</t>
   </si>
   <si>
+    <t>slow|slow</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>excellent|friendly</t>
+  </si>
+  <si>
+    <t>rude|rude</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>boarderline</t>
+  </si>
+  <si>
+    <t>attentive</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>little|little|little</t>
+  </si>
+  <si>
+    <t>terrible|terrible</t>
+  </si>
+  <si>
+    <t>concerned|good|concerned|good</t>
+  </si>
+  <si>
+    <t>good|good|noir</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>much|much|much</t>
+  </si>
+  <si>
+    <t>comfortable|comfortable</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>dissappointed</t>
-  </si>
-  <si>
-    <t>attentive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>promptly</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>says</t>
+    <t>attentive|attentive</t>
+  </si>
+  <si>
+    <t>counter</t>
   </si>
   <si>
     <t>awful</t>
   </si>
   <si>
-    <t>pleasant</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>pleasant|pleasant</t>
   </si>
   <si>
     <t>friendlier</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>long</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>drawbacks</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>helpful</t>
+    <t>perfecttheyre</t>
+  </si>
+  <si>
+    <t>clumsy|arrogant|arrogant</t>
+  </si>
+  <si>
+    <t>2nd</t>
   </si>
   <si>
     <t>ok</t>
@@ -1301,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,16 +1371,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1352,16 +1391,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1372,16 +1411,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1392,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1412,16 +1451,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1432,16 +1471,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1452,16 +1491,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1472,16 +1511,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1492,16 +1531,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1512,16 +1551,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1532,16 +1571,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1552,16 +1591,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1572,16 +1611,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1592,16 +1631,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1612,16 +1651,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1632,16 +1671,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1652,16 +1691,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1672,16 +1711,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1692,16 +1731,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1712,16 +1751,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1732,16 +1771,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1752,16 +1791,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1772,16 +1811,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1792,16 +1831,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1812,16 +1851,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1832,16 +1871,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1852,16 +1891,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1872,16 +1911,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1892,16 +1931,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1912,16 +1948,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F31" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1932,16 +1968,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1952,16 +1988,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1972,16 +2008,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1992,16 +2028,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2012,16 +2045,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2032,16 +2065,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2052,16 +2085,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2072,16 +2105,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2092,16 +2125,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2112,16 +2145,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2132,16 +2165,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2152,16 +2185,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2172,16 +2205,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2192,16 +2225,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2212,16 +2245,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2232,16 +2265,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2252,16 +2285,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2272,16 +2305,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2292,16 +2325,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2312,16 +2342,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2332,16 +2362,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2352,16 +2382,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2372,16 +2402,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2392,16 +2422,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F55" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2412,16 +2442,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2432,16 +2462,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F57" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2452,16 +2482,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2472,16 +2502,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2492,16 +2522,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2512,16 +2542,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2532,16 +2562,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2552,16 +2582,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2572,16 +2602,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2592,16 +2622,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2612,16 +2642,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F66" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2632,16 +2662,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2652,16 +2682,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2672,16 +2702,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2692,16 +2722,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2712,16 +2739,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2732,16 +2759,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2752,16 +2779,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2772,16 +2799,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2792,16 +2819,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F75" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2812,16 +2839,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2832,16 +2859,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2852,16 +2879,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2872,16 +2899,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2892,16 +2919,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2912,16 +2939,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F81" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2932,16 +2959,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2952,16 +2979,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2972,16 +2999,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2992,16 +3019,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3012,16 +3039,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3032,16 +3059,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3052,16 +3079,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3072,16 +3099,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="E89" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3092,16 +3119,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F90" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3112,16 +3139,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E91" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3132,16 +3159,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3152,16 +3179,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3172,16 +3199,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3192,16 +3219,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3212,16 +3239,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3232,16 +3259,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3252,16 +3276,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F98" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3272,16 +3296,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F99" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3292,16 +3316,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F100" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3312,16 +3336,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3332,16 +3356,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3352,16 +3376,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3372,16 +3396,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F104" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3392,16 +3416,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="E105" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F105" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3412,16 +3436,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3432,16 +3456,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3452,16 +3476,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3472,16 +3496,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3492,16 +3516,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F110" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3512,16 +3536,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="E111" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F111" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3532,16 +3556,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D112" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3552,16 +3576,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F113" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3572,16 +3596,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F114" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3592,16 +3616,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F115" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3612,16 +3636,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D116" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3632,16 +3656,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F117" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3652,16 +3676,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3672,16 +3696,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3692,16 +3716,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3712,16 +3736,56 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F121" t="s">
-        <v>309</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>247</v>
+      </c>
+      <c r="D122" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" t="s">
+        <v>322</v>
+      </c>
+      <c r="F122" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" t="s">
+        <v>316</v>
+      </c>
+      <c r="E123" t="s">
+        <v>321</v>
+      </c>
+      <c r="F123" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
